--- a/biology/Botanique/Magnolia_wolfii/Magnolia_wolfii.xlsx
+++ b/biology/Botanique/Magnolia_wolfii/Magnolia_wolfii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia wolfii est une espèce de plantes de la famille des Magnoliaceae. Endémique de Risaralda en Colombie, elle fait partie de la liste des 100 espèces les plus menacées au monde établie par l'UICN en 2012.
 </t>
